--- a/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2318,17 +2318,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.7890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2337,27 +2337,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.30859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="132.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -890,7 +890,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-servicerequest|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationrequest)
 </t>
   </si>
   <si>
@@ -1041,10 +1041,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/servicerequest-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1289,7 +1286,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
 </t>
   </si>
   <si>
@@ -1479,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1753,7 +1750,7 @@
     <t>medicationstatement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medicationstatement)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationstatement)
 </t>
   </si>
   <si>
@@ -1796,7 +1793,7 @@
     <t>pathologyresults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pahtology-observation)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-pathology-observation)
 </t>
   </si>
   <si>
@@ -1806,7 +1803,7 @@
     <t>imagingresults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-radiolology-observation)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-radiology-observation)
 </t>
   </si>
   <si>
@@ -1816,8 +1813,14 @@
     <t>cardiologyresults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-cardiolology-observation)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-etoc/StructureDefinition/ch-etoc-cardiology-observation)
 </t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo:attachment</t>
+  </si>
+  <si>
+    <t>attachment</t>
   </si>
   <si>
     <t>ServiceRequest.specimen</t>
@@ -2309,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO92"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2318,17 +2321,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.7890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2337,27 +2340,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="132.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="137.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6879,11 +6882,9 @@
       <c r="X39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6919,10 +6920,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>316</v>
@@ -6933,10 +6934,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6962,10 +6963,10 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6973,7 +6974,7 @@
         <v>82</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>82</v>
@@ -6997,11 +6998,11 @@
         <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7033,16 +7034,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -7050,10 +7051,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7076,26 +7077,26 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="R41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7154,13 +7155,13 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7171,14 +7172,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7200,13 +7201,13 @@
         <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7235,11 +7236,11 @@
         <v>322</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7271,27 +7272,27 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7403,10 +7404,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7520,10 +7521,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7546,19 +7547,19 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7607,7 +7608,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7625,10 +7626,10 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7639,10 +7640,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7668,16 +7669,16 @@
         <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7726,7 +7727,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7744,10 +7745,10 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7758,14 +7759,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7787,13 +7788,13 @@
         <v>201</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7822,11 +7823,11 @@
         <v>322</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7852,7 +7853,7 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>102</v>
@@ -7861,24 +7862,24 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7901,17 +7902,17 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7960,7 +7961,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7978,10 +7979,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7992,10 +7993,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8018,13 +8019,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8075,7 +8076,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
@@ -8090,31 +8091,31 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8133,13 +8134,13 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8190,7 +8191,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8205,31 +8206,31 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8248,13 +8249,13 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8305,7 +8306,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8320,27 +8321,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8363,13 +8364,13 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8399,11 +8400,11 @@
         <v>322</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8441,25 +8442,25 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8478,13 +8479,13 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8535,7 +8536,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8550,31 +8551,31 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>438</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8593,16 +8594,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8652,7 +8653,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8667,31 +8668,31 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8713,13 +8714,13 @@
         <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8748,11 +8749,11 @@
         <v>322</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8784,16 +8785,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8801,14 +8802,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8827,16 +8828,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8886,7 +8887,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8901,16 +8902,16 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AN56" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8918,10 +8919,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8947,10 +8948,10 @@
         <v>201</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8980,11 +8981,11 @@
         <v>322</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9022,10 +9023,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9033,10 +9034,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9059,13 +9060,13 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9116,7 +9117,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9137,10 +9138,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9148,10 +9149,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9177,13 +9178,13 @@
         <v>201</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9212,11 +9213,11 @@
         <v>322</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9248,16 +9249,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9265,10 +9266,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9380,10 +9381,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9497,10 +9498,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9523,19 +9524,19 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9584,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9602,10 +9603,10 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9616,10 +9617,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9645,16 +9646,16 @@
         <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9703,7 +9704,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9721,10 +9722,10 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9735,10 +9736,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9761,16 +9762,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9820,7 +9821,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9835,16 +9836,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AN64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9852,10 +9853,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9878,13 +9879,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9935,7 +9936,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9950,13 +9951,13 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9967,14 +9968,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9993,16 +9994,16 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10040,7 +10041,7 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
@@ -10050,7 +10051,7 @@
         <v>139</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10065,13 +10066,13 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10082,16 +10083,16 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="D67" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10110,16 +10111,16 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="M67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10169,7 +10170,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10184,13 +10185,13 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10201,16 +10202,16 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="D68" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10229,16 +10230,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10288,7 +10289,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10303,13 +10304,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10320,16 +10321,16 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C69" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="D69" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10348,16 +10349,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10407,7 +10408,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10422,13 +10423,13 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10439,16 +10440,16 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C70" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="D70" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10467,16 +10468,16 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10526,7 +10527,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10541,13 +10542,13 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10558,16 +10559,16 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="D71" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10586,16 +10587,16 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10645,7 +10646,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10660,13 +10661,13 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10677,16 +10678,16 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="D72" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10705,16 +10706,16 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10764,7 +10765,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10779,13 +10780,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10796,16 +10797,16 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="D73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10824,16 +10825,16 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10883,7 +10884,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10898,13 +10899,13 @@
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10915,16 +10916,16 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="D74" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10943,16 +10944,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11002,7 +11003,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11017,13 +11018,13 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
@@ -11034,16 +11035,16 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="D75" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11062,16 +11063,16 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11121,7 +11122,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11136,13 +11137,13 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -11153,16 +11154,16 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="D76" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11181,16 +11182,16 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="M76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11240,7 +11241,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11255,13 +11256,13 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11272,16 +11273,16 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="D77" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11300,16 +11301,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11359,7 +11360,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11374,13 +11375,13 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11391,16 +11392,16 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="D78" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11419,16 +11420,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11478,7 +11479,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11493,13 +11494,13 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11510,16 +11511,16 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C79" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="D79" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11538,16 +11539,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11597,7 +11598,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11612,13 +11613,13 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11629,16 +11630,16 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="D80" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11657,16 +11658,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11716,7 +11717,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11731,13 +11732,13 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11748,16 +11749,16 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="D81" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11776,16 +11777,16 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11835,7 +11836,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11850,13 +11851,13 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11867,16 +11868,16 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="D82" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11895,16 +11896,16 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11954,7 +11955,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11969,13 +11970,13 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11986,14 +11987,16 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="B83" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12009,19 +12012,19 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12071,7 +12074,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12086,13 +12089,13 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12103,14 +12106,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12129,20 +12132,18 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>201</v>
+        <v>571</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12166,13 +12167,13 @@
         <v>82</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12190,7 +12191,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12208,28 +12209,28 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>585</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>578</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12239,25 +12240,29 @@
         <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K85" t="s" s="2">
-        <v>587</v>
+        <v>201</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>51</v>
+        <v>579</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12281,13 +12286,13 @@
         <v>82</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>82</v>
+        <v>583</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12305,7 +12310,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12320,27 +12325,27 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12351,10 +12356,10 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>82</v>
@@ -12363,13 +12368,13 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>177</v>
+        <v>588</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>179</v>
+        <v>589</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12420,34 +12425,34 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>180</v>
+        <v>587</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>181</v>
+        <v>591</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>82</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" hidden="true">
@@ -12459,14 +12464,14 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12478,17 +12483,15 @@
         <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12525,31 +12528,31 @@
         <v>82</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12576,14 +12579,14 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>82</v>
@@ -12592,19 +12595,19 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>595</v>
+        <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>596</v>
+        <v>184</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>597</v>
+        <v>185</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>598</v>
+        <v>157</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12642,40 +12645,40 @@
         <v>82</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>599</v>
+        <v>187</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>600</v>
+        <v>181</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12686,10 +12689,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12712,15 +12715,17 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -12769,7 +12774,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12790,7 +12795,7 @@
         <v>133</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12801,10 +12806,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12812,13 +12817,13 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>82</v>
@@ -12827,13 +12832,13 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12884,10 +12889,10 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>90</v>
@@ -12905,7 +12910,7 @@
         <v>133</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12916,10 +12921,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12927,13 +12932,13 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
@@ -12942,13 +12947,13 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>177</v>
+        <v>608</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12999,10 +13004,10 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>90</v>
@@ -13017,10 +13022,10 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13031,10 +13036,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13045,7 +13050,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13054,20 +13059,18 @@
         <v>82</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>617</v>
+        <v>177</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13116,13 +13119,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>82</v>
@@ -13131,23 +13134,140 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM92" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO92" t="s" s="2">
+      <c r="AM93" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO92">
+  <autoFilter ref="A1:AO93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13157,7 +13277,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -542,7 +542,7 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -972,7 +972,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1538,7 +1538,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1584,7 +1584,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -382,7 +382,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -681,7 +681,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -778,7 +778,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -846,7 +846,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1127,7 +1127,7 @@
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service. For laboratory, LOINC is preferred.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1222,7 +1222,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1359,7 +1359,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1454,7 +1454,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1519,7 +1519,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1625,7 +1625,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1826,7 +1826,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1867,7 +1867,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1904,7 +1904,7 @@
     <t>ServiceRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2321,15 +2321,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.2265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2340,27 +2340,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.30859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="117.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3416,7 +3416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>221</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>247</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>255</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>256</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>308</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>326</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>345</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>368</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>391</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>438</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>479</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>492</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>493</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>501</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>518</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>522</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>525</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>528</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>531</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>534</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>537</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>540</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>543</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>546</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>550</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>553</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>556</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>559</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>562</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>565</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>587</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>607</v>
       </c>
@@ -13268,12 +13268,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO93">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
